--- a/Unity/Assets/Config/Excel/SoulLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SoulLevelConfig.xlsx
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
         <v>1001</v>

--- a/Unity/Assets/Config/Excel/SoulLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SoulLevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809"/>
+    <workbookView windowWidth="26310" windowHeight="11655" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="SoulLevelConfig" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,12 @@
     <t>CurrencyValue</t>
   </si>
   <si>
+    <t>BreakItem</t>
+  </si>
+  <si>
+    <t>BreakItemAmount</t>
+  </si>
+  <si>
     <t>PropertyPack</t>
   </si>
   <si>
@@ -62,6 +68,12 @@
     <t>long</t>
   </si>
   <si>
+    <t>int?</t>
+  </si>
+  <si>
+    <t>long?</t>
+  </si>
+  <si>
     <t>int#ref=PropertyConfigCategory</t>
   </si>
   <si>
@@ -84,6 +96,12 @@
   </si>
   <si>
     <t>升级货币值</t>
+  </si>
+  <si>
+    <t>突破道具编号</t>
+  </si>
+  <si>
+    <t>突破道具个数</t>
   </si>
   <si>
     <t>等级属性包</t>
@@ -1072,13 +1090,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
@@ -1086,11 +1104,13 @@
     <col min="4" max="4" width="12.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="33.625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="7" max="7" width="30" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1112,256 +1132,1286 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4">
         <v>800001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="I5" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="4">
         <v>800001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
       </c>
-      <c r="G6" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="I6" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="4">
         <v>800001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4">
         <v>300</v>
       </c>
-      <c r="G7" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="I7" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="4">
         <v>800001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4">
         <v>400</v>
       </c>
-      <c r="G8" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="I8" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="4">
         <v>800001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4">
         <v>500</v>
       </c>
-      <c r="G9" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="I9" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4">
         <v>800001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4">
         <v>600</v>
       </c>
-      <c r="G10" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="I10" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="4">
         <v>800001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4">
         <v>700</v>
       </c>
-      <c r="G11" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="I11" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="4">
         <v>800001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4">
         <v>800</v>
       </c>
-      <c r="G12" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="I12" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="4">
         <v>800001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4">
         <v>900</v>
       </c>
-      <c r="G13" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="I13" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="4">
         <v>800001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1200</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1300</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1400</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1700</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1900</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4">
         <v>21</v>
       </c>
-      <c r="F14" s="4">
+      <c r="E25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2100</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2200</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2300</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2400</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2600</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="4">
+        <v>27</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2700</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="4">
+        <v>28</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2800</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="4">
+        <v>29</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2900</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="4">
+        <v>810001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4">
+        <v>31</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3100</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4">
+        <v>32</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3200</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4">
+        <v>33</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3300</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="4">
+        <v>34</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3400</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4">
+        <v>35</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4">
+        <v>36</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3600</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4">
+        <v>37</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3700</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="4">
+        <v>38</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3800</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4">
+        <v>39</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3900</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4">
+        <v>40</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4000</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4">
+        <v>41</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4100</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="4">
+        <v>42</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4200</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4">
+        <v>43</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4300</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4400</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4500</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="4">
+        <v>46</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4600</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="4">
+        <v>47</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4700</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4">
+        <v>48</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4800</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="4">
+        <v>49</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4900</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="4">
+        <v>50</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G54" s="4">
+        <v>810001</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="4">
+        <v>51</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5100</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="4">
+        <v>52</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5200</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="4">
+        <v>53</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5300</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="4">
+        <v>54</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5400</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="4">
+        <v>55</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="4">
+        <v>5500</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="4">
+        <v>56</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="4">
+        <v>5600</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="4">
+        <v>57</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5700</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="4">
+        <v>58</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="4">
+        <v>5800</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="4">
+        <v>59</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="4">
+        <v>5900</v>
+      </c>
+      <c r="I63" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="4">
+        <v>800001</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="4">
+        <v>60</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I64" s="4">
         <v>1001</v>
       </c>
     </row>
